--- a/TestCase/Feed/KG__ERP__IntegrationTestCase__Feed_Settings__2020-02-22__v1.0.0.xlsx
+++ b/TestCase/Feed/KG__ERP__IntegrationTestCase__Feed_Settings__2020-02-22__v1.0.0.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="152">
   <si>
     <t>General Guidelines</t>
   </si>
@@ -491,9 +491,6 @@
     <t>5. Product</t>
   </si>
   <si>
-    <t>6. Product Price</t>
-  </si>
-  <si>
     <t>Feed Settings</t>
   </si>
   <si>
@@ -549,6 +546,12 @@
   </si>
   <si>
     <t>Factory Carring Cost, Depo Carring Cost, Marketing Officer Name Should be mentioned for Upazila List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Name, Pack Size, Short Name, Unit Price Must be Mentioned, Product Code and Unit will be auto generated </t>
+  </si>
+  <si>
+    <t>6. Product Sale Price</t>
   </si>
 </sst>
 </file>
@@ -1250,48 +1253,48 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2073,8 +2076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G5" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2084,7 +2087,7 @@
     <col min="4" max="4" width="11.7109375" style="81" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="38.28515625" customWidth="1"/>
-    <col min="7" max="7" width="46" style="73" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46" style="73" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="74.140625" customWidth="1"/>
     <col min="9" max="9" width="23" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" customWidth="1"/>
@@ -2134,10 +2137,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="110" t="s">
+      <c r="D4" s="113" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="110"/>
+      <c r="E4" s="113"/>
       <c r="F4" s="4"/>
       <c r="H4" s="9"/>
       <c r="I4" s="32"/>
@@ -2170,8 +2173,8 @@
         <v>24</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
       <c r="F6" s="4"/>
       <c r="H6" s="9"/>
       <c r="I6" s="32"/>
@@ -2202,24 +2205,24 @@
     </row>
     <row r="8" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
-      <c r="B8" s="117" t="s">
+      <c r="B8" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="117"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="117"/>
-      <c r="K8" s="109" t="s">
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="109"/>
-      <c r="M8" s="109"/>
-      <c r="N8" s="109"/>
-      <c r="O8" s="109"/>
+      <c r="L8" s="112"/>
+      <c r="M8" s="112"/>
+      <c r="N8" s="112"/>
+      <c r="O8" s="112"/>
       <c r="P8" s="40" t="s">
         <v>13</v>
       </c>
@@ -2274,17 +2277,17 @@
     </row>
     <row r="10" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
-      <c r="B10" s="111" t="s">
+      <c r="B10" s="114" t="s">
         <v>126</v>
       </c>
-      <c r="C10" s="114" t="s">
+      <c r="C10" s="117" t="s">
         <v>95</v>
       </c>
       <c r="D10" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="118" t="s">
-        <v>132</v>
+      <c r="E10" s="121" t="s">
+        <v>131</v>
       </c>
       <c r="F10" s="92" t="s">
         <v>106</v>
@@ -2306,12 +2309,12 @@
     </row>
     <row r="11" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
-      <c r="B11" s="112"/>
-      <c r="C11" s="115"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="118"/>
       <c r="D11" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="119"/>
+      <c r="E11" s="122"/>
       <c r="F11" s="92" t="s">
         <v>107</v>
       </c>
@@ -2330,20 +2333,20 @@
     </row>
     <row r="12" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
-      <c r="B12" s="112"/>
-      <c r="C12" s="115"/>
+      <c r="B12" s="115"/>
+      <c r="C12" s="118"/>
       <c r="D12" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="E12" s="119"/>
-      <c r="F12" s="121" t="s">
+      <c r="E12" s="122"/>
+      <c r="F12" s="109" t="s">
         <v>128</v>
       </c>
       <c r="G12" s="108" t="s">
         <v>114</v>
       </c>
       <c r="H12" s="70" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I12" s="65"/>
       <c r="J12" s="65"/>
@@ -2356,12 +2359,12 @@
     </row>
     <row r="13" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
-      <c r="B13" s="112"/>
-      <c r="C13" s="115"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="118"/>
       <c r="D13" s="82" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="119"/>
+      <c r="E13" s="122"/>
       <c r="F13" s="102" t="s">
         <v>129</v>
       </c>
@@ -2369,7 +2372,7 @@
         <v>114</v>
       </c>
       <c r="H13" s="70" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I13" s="65"/>
       <c r="J13" s="65"/>
@@ -2380,21 +2383,23 @@
       <c r="O13" s="65"/>
       <c r="P13" s="65"/>
     </row>
-    <row r="14" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
-      <c r="B14" s="112"/>
-      <c r="C14" s="115"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="118"/>
       <c r="D14" s="82" t="s">
         <v>110</v>
       </c>
-      <c r="E14" s="119"/>
+      <c r="E14" s="122"/>
       <c r="F14" s="73" t="s">
         <v>130</v>
       </c>
       <c r="G14" s="108" t="s">
         <v>114</v>
       </c>
-      <c r="H14" s="70"/>
+      <c r="H14" s="70" t="s">
+        <v>150</v>
+      </c>
       <c r="I14" s="65"/>
       <c r="J14" s="65"/>
       <c r="K14" s="65"/>
@@ -2404,22 +2409,22 @@
       <c r="O14" s="65"/>
       <c r="P14" s="66"/>
     </row>
-    <row r="15" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
-      <c r="B15" s="112"/>
-      <c r="C15" s="115"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="118"/>
       <c r="D15" s="82" t="s">
         <v>111</v>
       </c>
-      <c r="E15" s="119"/>
+      <c r="E15" s="122"/>
       <c r="F15" s="103" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="G15" s="108" t="s">
         <v>114</v>
       </c>
       <c r="H15" s="70" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I15" s="65"/>
       <c r="J15" s="65"/>
@@ -2432,20 +2437,20 @@
     </row>
     <row r="16" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
-      <c r="B16" s="112"/>
-      <c r="C16" s="115"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="118"/>
       <c r="D16" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="E16" s="119"/>
+      <c r="E16" s="122"/>
       <c r="F16" s="103" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G16" s="108" t="s">
         <v>114</v>
       </c>
       <c r="H16" s="70" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I16" s="65"/>
       <c r="J16" s="65"/>
@@ -2458,36 +2463,36 @@
     </row>
     <row r="17" spans="1:16" s="93" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55"/>
-      <c r="B17" s="112"/>
-      <c r="C17" s="115"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="118"/>
       <c r="D17" s="90"/>
-      <c r="E17" s="119"/>
+      <c r="E17" s="122"/>
       <c r="F17" s="104" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G17" s="108" t="s">
         <v>114</v>
       </c>
       <c r="H17" s="70" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I17" s="63"/>
       <c r="J17" s="63"/>
       <c r="K17" s="63"/>
       <c r="L17" s="63"/>
       <c r="M17" s="63"/>
-      <c r="N17" s="123"/>
-      <c r="O17" s="123"/>
-      <c r="P17" s="123"/>
+      <c r="N17" s="111"/>
+      <c r="O17" s="111"/>
+      <c r="P17" s="111"/>
     </row>
     <row r="18" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="54"/>
-      <c r="B18" s="112"/>
-      <c r="C18" s="115"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="118"/>
       <c r="D18" s="61"/>
-      <c r="E18" s="119"/>
+      <c r="E18" s="122"/>
       <c r="F18" s="103" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G18" s="108" t="s">
         <v>114</v>
@@ -2504,18 +2509,18 @@
     </row>
     <row r="19" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="54"/>
-      <c r="B19" s="112"/>
-      <c r="C19" s="115"/>
+      <c r="B19" s="115"/>
+      <c r="C19" s="118"/>
       <c r="D19" s="61"/>
-      <c r="E19" s="119"/>
+      <c r="E19" s="122"/>
       <c r="F19" s="103" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G19" s="108" t="s">
         <v>114</v>
       </c>
       <c r="H19" s="70" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I19" s="63"/>
       <c r="J19" s="63"/>
@@ -2528,18 +2533,18 @@
     </row>
     <row r="20" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="54"/>
-      <c r="B20" s="113"/>
-      <c r="C20" s="116"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="119"/>
       <c r="D20" s="61"/>
-      <c r="E20" s="119"/>
+      <c r="E20" s="122"/>
       <c r="F20" s="105" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G20" s="108" t="s">
         <v>114</v>
       </c>
       <c r="H20" s="70" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I20" s="63"/>
       <c r="J20" s="64"/>
@@ -2555,15 +2560,15 @@
       <c r="B21" s="61"/>
       <c r="C21" s="61"/>
       <c r="D21" s="83"/>
-      <c r="E21" s="119"/>
+      <c r="E21" s="122"/>
       <c r="F21" s="106" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G21" s="108" t="s">
         <v>114</v>
       </c>
       <c r="H21" s="90" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I21" s="101"/>
       <c r="J21" s="62"/>
@@ -2579,15 +2584,15 @@
       <c r="B22" s="61"/>
       <c r="C22" s="61"/>
       <c r="D22" s="83"/>
-      <c r="E22" s="119"/>
+      <c r="E22" s="122"/>
       <c r="F22" s="106" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G22" s="108" t="s">
         <v>114</v>
       </c>
       <c r="H22" s="61" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I22" s="61"/>
       <c r="J22" s="62"/>
@@ -2603,15 +2608,15 @@
       <c r="B23" s="61"/>
       <c r="C23" s="61"/>
       <c r="D23" s="83"/>
-      <c r="E23" s="119"/>
+      <c r="E23" s="122"/>
       <c r="F23" s="107" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G23" s="108" t="s">
         <v>114</v>
       </c>
       <c r="H23" s="61" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I23" s="61"/>
       <c r="J23" s="62"/>
@@ -2627,15 +2632,15 @@
       <c r="B24" s="61"/>
       <c r="C24" s="61"/>
       <c r="D24" s="83"/>
-      <c r="E24" s="120"/>
+      <c r="E24" s="123"/>
       <c r="F24" s="107" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G24" s="108" t="s">
         <v>114</v>
       </c>
-      <c r="H24" s="122" t="s">
-        <v>148</v>
+      <c r="H24" s="110" t="s">
+        <v>147</v>
       </c>
       <c r="I24" s="61"/>
       <c r="J24" s="62"/>
